--- a/va_facility_data_2025-02-20/Providence VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Providence%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Providence VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Providence%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R1f8f475109ad4063a5837d59f6b321ec"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2aaa4f9d035b4b9b91dca07e8db9dad5"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra9bc8d29fa974e7b8151900b29ea4ef9"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Ra16074da6d33478a975b11292ed6d226"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb1930efda30446b3ad2887aed645a971"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1f0ed001a0754b62b43c0bf9c163ae14"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R792151eda0eb4cf589d36d7c7ae7ae5e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R6d851143de024458bc6157e78f063d30"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0f07d8647d06488abb22957476b674e2"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R41ec86bf76924d13a1c2cefed38541e8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R82691a495aed475e975702bd57d05308"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R04992d8ad7fc43a3a60bfe1df45d717b"/>
   </x:sheets>
 </x:workbook>
 </file>
